--- a/Phase_2/results.xlsx
+++ b/Phase_2/results.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shour\OneDrive\Desktop\GxE_Analysis\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20E907-DF21-4C76-91A3-6A0E98ADB45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941361D-9BAA-416B-B6ED-DF55F78CA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="With_TL" sheetId="1" r:id="rId1"/>
-    <sheet name="Without_TL" sheetId="2" r:id="rId2"/>
+    <sheet name="With_TL_AST" sheetId="1" r:id="rId1"/>
+    <sheet name="With_TL_SUT" sheetId="3" r:id="rId2"/>
+    <sheet name="Without_TL_AST" sheetId="2" r:id="rId3"/>
+    <sheet name="Without_TL_SUT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>Model Name</t>
   </si>
@@ -52,9 +54,6 @@
     <t>Race</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>LogisticRegression</t>
   </si>
   <si>
@@ -62,16 +61,55 @@
   </si>
   <si>
     <t>Base Model</t>
+  </si>
+  <si>
+    <t>Resampling</t>
+  </si>
+  <si>
+    <t>Tune_base</t>
+  </si>
+  <si>
+    <t>Tune_final</t>
+  </si>
+  <si>
+    <t>Base Model Accuracy</t>
+  </si>
+  <si>
+    <t>With CV</t>
+  </si>
+  <si>
+    <t>Base Model Params</t>
+  </si>
+  <si>
+    <t>{max_iter=500, solver='saga', multi_class='multinomial', penalty='elasticnet',
+l1_ratio=1.0, C=0.615848211066026}</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>max_iter=3800, solver='saga', penalty='l2', C=0.03359818286283781,                                  multi_class='multinomial'</t>
+  </si>
+  <si>
+    <t>n_estimators=750, max_depth=80, random_state=42, min_samples_split=20,
+                                        min_samples_leaf=15, max_features='sqrt', bootstrap=True</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Best Parameters for final model (race 4.0): {'subsample': 0.9736842105263157, 'reg_lambda': 0.5555555555555556, 'reg_alpha': 0.8888888888888888, 'num_leaves': 315, 'min_split_gain': 0.4444444444444444, 'min_child_samples': 91, 'max_depth': 7, 'learning_rate': 0.007937005259840991, 'colsample_bytree': 0.7777777777777778}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +120,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,12 +156,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,31 +169,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,195 +576,889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>0.79646017699115002</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.805755395683453</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.75265957446808496</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.74774774774774699</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>0.80727740276438398</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.80485611510791299</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.76063829787234005</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.76576576576576505</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="126" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>0.80793314046930198</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.80125899280575497</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.75531914893617003</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.74774774774774699</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>0.80727740276438398</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.80305755395683398</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.76063829787234005</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.74774774774774699</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>0.80105003750133896</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0.80432645034414896</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8">
-        <v>0.66262975778546696</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.69970845481049504</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.73584905660377298</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.77777777777777701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.90107913669064699</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.76595744680850997</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.74774774774774699</v>
+      </c>
+      <c r="I7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>0.80793206900246395</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.806293018682399</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.84429065743944598</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.68221574344023295</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.73584905660377298</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.80808080808080796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
+      <c r="C8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.82014388489208601</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:L8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE1B6B-8EC7-4841-A815-4D8ED46C3A73}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A96E3-4AA4-4ABF-9CD1-4A8772AE4767}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>0.323500491642084</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.40495867768595001</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.42268041237113402</v>
+      </c>
+      <c r="I3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>0.43657817109144498</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.53163444639718804</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.413223140495867</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.42268041237113402</v>
+      </c>
+      <c r="I4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>0.56015536269152399</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
-        <v>0.68858131487889196</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.69096209912536399</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.75471698113207497</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.80808080808080796</v>
+      <c r="C7" s="12"/>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.57820738137082595</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.413223140495867</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.49484536082474201</v>
+      </c>
+      <c r="I7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:L8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE1B6B-8EC7-4841-A815-4D8ED46C3A73}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="29">
+        <v>0.80665467625899201</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.76329787234042501</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.76576576576576505</v>
+      </c>
+      <c r="G4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="20">
+        <v>0.80485611510791299</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.75265957446808496</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.74509803921568596</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.73873873873873797</v>
+      </c>
+      <c r="G5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.81205035971223005</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.76595744680850997</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.76576576576576505</v>
+      </c>
+      <c r="G6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FBF0C5-56C9-4ED6-99B5-2A4E7CAEC132}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="29">
+        <v>0.538664323374341</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.39393939393939298</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.49484536082474201</v>
+      </c>
+      <c r="G4" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29">
+        <v>0.49121265377855799</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.443526170798898</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.45360824742268002</v>
+      </c>
+      <c r="G5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="20">
+        <v>0.54745166959578195</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.39393939393939298</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.55670103092783496</v>
+      </c>
+      <c r="G6" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="20">
+        <v>0.47891036906854101</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.38842975206611502</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.432989690721649</v>
+      </c>
+      <c r="G7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Phase_2/results.xlsx
+++ b/Phase_2/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shour\OneDrive\Desktop\GxE_Analysis\Phase_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shouryamaheshwari/Desktop/GxE-Study/Phase_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941361D-9BAA-416B-B6ED-DF55F78CA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80271B-6D24-9545-92F0-D4DD324E0327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="With_TL_AST" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -212,47 +212,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,36 +252,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,303 +563,303 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="13" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="7" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>0.79646017699115002</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>0.805755395683453</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>0.75265957446808496</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>0.80392156862745101</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14">
         <v>0.74774774774774699</v>
       </c>
-      <c r="I3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="I3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>0.80727740276438398</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>0.80485611510791299</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>0.76063829787234005</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>0.80392156862745101</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <v>0.76576576576576505</v>
       </c>
-      <c r="I4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="126" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="I4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="140" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>0.80793314046930198</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>0.80125899280575497</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <v>0.75531914893617003</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <v>0.80392156862745101</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <v>0.74774774774774699</v>
       </c>
-      <c r="I5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="I5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>0.80727740276438398</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>0.80305755395683398</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <v>0.76063829787234005</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="14">
         <v>0.80392156862745101</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="14">
         <v>0.74774774774774699</v>
       </c>
-      <c r="I6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="I6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>0.80105003750133896</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
         <v>0.90107913669064699</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>0.76595744680850997</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>0.82352941176470495</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>0.74774774774774699</v>
       </c>
-      <c r="I7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="I7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>0.80793206900246395</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <v>0.82014388489208601</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>0.75</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>0.80392156862745101</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="14">
         <v>0.78378378378378299</v>
       </c>
-      <c r="I8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
+      <c r="I8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -907,216 +889,216 @@
       <selection activeCell="G5" sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="23.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>0.323500491642084</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>0.5</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>0.40495867768595001</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>0.5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14">
         <v>0.42268041237113402</v>
       </c>
-      <c r="I3" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="I3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>0.43657817109144498</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>0.53163444639718804</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>0.413223140495867</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>0.5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <v>0.42268041237113402</v>
       </c>
-      <c r="I4" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="I4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>0.56015536269152399</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="14">
         <v>0.57820738137082595</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>0.413223140495867</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>0.59615384615384603</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>0.49484536082474201</v>
       </c>
-      <c r="I7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="I7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1149,136 +1131,135 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="17.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="s">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="29">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20">
         <v>0.80665467625899201</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="20">
         <v>0.76329787234042501</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="20">
         <v>0.80392156862745101</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="20">
         <v>0.76576576576576505</v>
       </c>
-      <c r="G4" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="G4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>0.80485611510791299</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>0.75265957446808496</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>0.74509803921568596</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>0.73873873873873797</v>
       </c>
-      <c r="G5" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="G5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>0.81205035971223005</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>0.76595744680850997</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>0.80392156862745101</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>0.76576576576576505</v>
       </c>
-      <c r="G6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N9" s="8"/>
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1298,159 +1279,159 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="s">
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="29">
+      <c r="B4" s="18"/>
+      <c r="C4" s="20">
         <v>0.538664323374341</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="20">
         <v>0.39393939393939298</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="20">
         <v>0.63461538461538403</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="20">
         <v>0.49484536082474201</v>
       </c>
-      <c r="G4" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="G4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="29">
+      <c r="B5" s="18"/>
+      <c r="C5" s="20">
         <v>0.49121265377855799</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="20">
         <v>0.443526170798898</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="20">
         <v>0.63461538461538403</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="20">
         <v>0.45360824742268002</v>
       </c>
-      <c r="G5" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="G5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="20">
+      <c r="B6" s="10"/>
+      <c r="C6" s="15">
         <v>0.54745166959578195</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>0.39393939393939298</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>0.42307692307692302</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>0.55670103092783496</v>
       </c>
-      <c r="G6" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="20">
+      <c r="B7" s="10"/>
+      <c r="C7" s="15">
         <v>0.47891036906854101</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>0.38842975206611502</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>0.42307692307692302</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <v>0.432989690721649</v>
       </c>
-      <c r="G7" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20" t="b">
+      <c r="G7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Phase_2/results.xlsx
+++ b/Phase_2/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shouryamaheshwari/Desktop/GxE-Study/Phase_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shour\OneDrive\Desktop\GxE_Analysis\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80271B-6D24-9545-92F0-D4DD324E0327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4566618-3859-4698-9F52-56250C2D481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="With_TL_AST" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Model Name</t>
   </si>
@@ -91,14 +91,10 @@
     <t>max_iter=3800, solver='saga', penalty='l2', C=0.03359818286283781,                                  multi_class='multinomial'</t>
   </si>
   <si>
-    <t>n_estimators=750, max_depth=80, random_state=42, min_samples_split=20,
-                                        min_samples_leaf=15, max_features='sqrt', bootstrap=True</t>
-  </si>
-  <si>
     <t>LightGBM</t>
   </si>
   <si>
-    <t>Best Parameters for final model (race 4.0): {'subsample': 0.9736842105263157, 'reg_lambda': 0.5555555555555556, 'reg_alpha': 0.8888888888888888, 'num_leaves': 315, 'min_split_gain': 0.4444444444444444, 'min_child_samples': 91, 'max_depth': 7, 'learning_rate': 0.007937005259840991, 'colsample_bytree': 0.7777777777777778}</t>
+    <t>Base Model Val Accuracy</t>
   </si>
 </sst>
 </file>
@@ -561,30 +557,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:L8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="28.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -614,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -636,7 +630,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.79646017699115002</v>
       </c>
@@ -672,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>0.80727740276438398</v>
       </c>
@@ -710,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="140" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="126" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>0.80793314046930198</v>
       </c>
@@ -748,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>0.80727740276438398</v>
       </c>
@@ -784,9 +778,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>0.80105003750133896</v>
+        <v>0.80727630285152396</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>6</v>
@@ -796,16 +790,16 @@
         <v>18</v>
       </c>
       <c r="E7" s="14">
-        <v>0.90107913669064699</v>
+        <v>0.82284172661870503</v>
       </c>
       <c r="F7" s="14">
-        <v>0.76595744680850997</v>
+        <v>0.75531914893617003</v>
       </c>
       <c r="G7" s="14">
         <v>0.82352941176470495</v>
       </c>
       <c r="H7" s="14">
-        <v>0.74774774774774699</v>
+        <v>0.76576576576576505</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -816,49 +810,45 @@
       <c r="K7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>0.80793206900246395</v>
+      <c r="L7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>0.80793217246652804</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="14">
-        <v>0.82014388489208601</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.75</v>
+        <v>0.80570822143290299</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.77907545554604296</v>
       </c>
       <c r="G8" s="14">
-        <v>0.80392156862745101</v>
+        <v>0.79393939393939394</v>
       </c>
       <c r="H8" s="14">
-        <v>0.78378378378378299</v>
-      </c>
-      <c r="I8" s="7" t="b">
-        <v>0</v>
-      </c>
+        <v>0.83870129870129795</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="7" t="b">
-        <v>0</v>
+      <c r="K8" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="L8" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
     </row>
   </sheetData>
@@ -866,7 +856,7 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:L8">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -886,24 +876,24 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:L8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="15"/>
+    <col min="13" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -935,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -957,7 +947,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>0.323500491642084</v>
       </c>
@@ -993,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>0.43657817109144498</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -1043,7 +1033,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -1057,7 +1047,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>0.56015536269152399</v>
       </c>
@@ -1093,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
@@ -1127,21 +1117,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" activeCellId="1" sqref="C17 H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="15.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="17.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="22" t="s">
         <v>16</v>
@@ -1155,7 +1145,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
@@ -1188,33 +1178,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="20">
-        <v>0.80665467625899201</v>
+        <v>0.803650264229403</v>
       </c>
       <c r="D4" s="20">
-        <v>0.76329787234042501</v>
+        <v>0.78088541029717495</v>
       </c>
       <c r="E4" s="20">
-        <v>0.80392156862745101</v>
+        <v>0.81212121212121202</v>
       </c>
       <c r="F4" s="20">
-        <v>0.76576576576576505</v>
+        <v>0.83870129870129795</v>
       </c>
       <c r="G4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15">
         <v>0.80485611510791299</v>
@@ -1235,30 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.81205035971223005</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.76595744680850997</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.80392156862745101</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.76576576576576505</v>
-      </c>
-      <c r="G6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N9" s="5"/>
     </row>
   </sheetData>
@@ -1276,20 +1243,20 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
         <v>16</v>
@@ -1303,7 +1270,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
@@ -1339,7 +1306,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -1387,9 +1354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="15">
@@ -1411,9 +1378,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="15">

--- a/Phase_2/results.xlsx
+++ b/Phase_2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shour\OneDrive\Desktop\GxE_Analysis\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202CC2F-A5DC-4DA6-8250-D657C47C50E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C72FE-8A8F-4642-9283-D712CD3B0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="With_TL_AST" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Model Name</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>LogisticRegression performs way worse with resampling is enabled vs.without.</t>
-  </si>
-  <si>
     <t>Race 1.0 in new data is not exactly the same as the whole of old data, but they do share similarities.</t>
   </si>
   <si>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>% Change</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>LogisticRegression performs better without resampling.</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -447,11 +453,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -470,6 +546,165 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,111 +713,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,363 +997,363 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="43" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="23.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="29" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="L2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="N2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="28"/>
+      <c r="P2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>0.80793184733480605</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>0.80793217246652804</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="23">
         <v>0.80453434982240302</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>0.79351840528311102</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>0.79393939393939394</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="24">
         <v>0.83870129870129795</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="23">
         <v>0.80453347047979296</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="22">
         <f>ABS((I3 - E3)/E3) * 100</f>
         <v>1.0929833017754046E-4</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>0.79350833358725104</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="18">
         <f>ABS((K3 - F3)/F3) * 100</f>
         <v>1.2692454003493164E-3</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>0.79393939393939394</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="19">
         <f>ABS((M3 - G3)/G3) * 100</f>
         <v>0</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="24">
         <v>0.83870916079436197</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="21">
         <f>ABS((O3 - H3)/H3) * 100</f>
         <v>9.3741276855064792E-4</v>
       </c>
-      <c r="Q3" s="31" t="b">
+      <c r="Q3" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="32" t="b">
+      <c r="R3" s="51" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>0.44911257606490801</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>0.44817444219066899</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="29">
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="23">
         <v>0.44660325780959398</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>0.60755941270110603</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>0.77522281639928603</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="24">
         <v>0.79835680751173699</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="23">
         <v>0.44660273402647399</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="22">
         <f>ABS((I4 - E4)/E4) * 100</f>
         <v>1.1728152690975407E-4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="13">
         <v>0.60755931492555704</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="18">
         <f>ABS((K4 - F4)/F4) * 100</f>
         <v>1.6093166684045577E-5</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="13">
         <v>0.77515250544662295</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="19">
         <f>ABS((M4 - G4)/G4) * 100</f>
         <v>9.0697733833033974E-3</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="24">
         <v>0.798321678321678</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="21">
         <f>ABS((O4 - H4)/H4) * 100</f>
         <v>4.4001866995384432E-3</v>
       </c>
-      <c r="Q4" s="33" t="b">
+      <c r="Q4" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
+      <c r="R4" s="52"/>
+    </row>
+    <row r="5" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>0.80801381454792098</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>0.80793217246652804</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>0.939651303820497</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>0.83500468794586402</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>0.81212121212121202</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <v>0.85662337662337595</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="23">
         <v>0.94002055030287801</v>
       </c>
-      <c r="J6" s="46">
-        <f t="shared" ref="J5:J7" si="0">ABS((I6 - E6)/E6) * 100</f>
+      <c r="J6" s="22">
+        <f t="shared" ref="J6:J7" si="0">ABS((I6 - E6)/E6) * 100</f>
         <v>3.929611770661167E-2</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>0.83634022974496403</v>
       </c>
-      <c r="L6" s="24">
-        <f t="shared" ref="L5:L7" si="1">ABS((K6 - F6)/F6) * 100</f>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6:L7" si="1">ABS((K6 - F6)/F6) * 100</f>
         <v>0.1599442276648142</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="13">
         <v>0.81515151515151496</v>
       </c>
-      <c r="N6" s="25">
-        <f t="shared" ref="N5:N7" si="2">ABS((M6 - G6)/G6) * 100</f>
+      <c r="N6" s="19">
+        <f t="shared" ref="N6:N7" si="2">ABS((M6 - G6)/G6) * 100</f>
         <v>0.37313432835819771</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="24">
         <v>0.859320948110185</v>
       </c>
-      <c r="P6" s="27">
-        <f t="shared" ref="P5:P7" si="3">ABS((O6 - H6)/H6) * 100</f>
+      <c r="P6" s="21">
+        <f t="shared" ref="P6:P7" si="3">ABS((O6 - H6)/H6) * 100</f>
         <v>0.31490752650742387</v>
       </c>
-      <c r="Q6" s="31" t="b">
+      <c r="Q6" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="32" t="b">
+      <c r="R6" s="51" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>0.87543103448275805</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>0.81663286004056701</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="29">
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="23">
         <v>0.98260417814293499</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>0.88901844803762298</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <v>0.82245989304812805</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="24">
         <v>0.87398278560250298</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <v>0.98248694560166605</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="22">
         <f t="shared" si="0"/>
         <v>1.1930800201817169E-2</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>0.888821482980513</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="18">
         <f t="shared" si="1"/>
         <v>2.2155339694552807E-2</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="13">
         <v>0.82839869281045697</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="19">
         <f t="shared" si="2"/>
         <v>0.72207773443140943</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="24">
         <v>0.87045270518954698</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="21">
         <f t="shared" si="3"/>
         <v>0.40390731615182102</v>
       </c>
-      <c r="Q7" s="33" t="b">
+      <c r="Q7" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="16" t="s">
-        <v>25</v>
+      <c r="R7" s="52"/>
+      <c r="S7" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1244,379 +1374,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A96E3-4AA4-4ABF-9CD1-4A8772AE4767}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="43" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="23.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="L2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="N2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="P2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>0.56506098011430395</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>0.56211048804700703</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="C3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="23">
         <v>0.57295329472817302</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>0.50407239819004501</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>0.52156862745097998</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="24">
         <v>0.53847549909255898</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="23">
         <v>0.57294779751067704</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="22">
         <f>ABS((I3 - E3)/E3) * 100</f>
         <v>9.5945298623244517E-4</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="13">
         <v>0.50405862457722606</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="18">
         <f>ABS((K3 - F3)/F3) * 100</f>
         <v>2.7324671750354459E-3</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>0.520762527233115</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="19">
         <f>ABS((M3 - G3)/G3) * 100</f>
         <v>0.15455304928990232</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="24">
         <v>0.53846242243162401</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="21">
         <f>ABS((O3 - H3)/H3) * 100</f>
         <v>2.4284597826662517E-3</v>
       </c>
-      <c r="Q3" s="31" t="b">
+      <c r="Q3" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="32" t="b">
+      <c r="R3" s="51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
         <v>0.53870398845237699</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="32">
         <v>0.53328462840788804</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="29">
+      <c r="C4" s="56"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="34">
         <v>0.53181477524596099</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="32">
         <v>0.54514008993427798</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="32">
         <v>0.57176470588235295</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="35">
         <v>0.57333333333333303</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="34">
         <v>0.53181207485323001</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="36">
         <f>ABS((I4 - E4)/E4) * 100</f>
         <v>5.0776940707073794E-4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="32">
         <v>0.5451455940187</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="37">
         <f>ABS((K4 - F4)/F4) * 100</f>
         <v>1.0096642172616611E-3</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="32">
         <v>0.572223959962464</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="38">
         <f>ABS((M4 - G4)/G4) * 100</f>
         <v>8.0322215657282217E-2</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="35">
         <v>0.57318085507793204</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="39">
         <f>ABS((O4 - H4)/H4) * 100</f>
         <v>2.6595044546684245E-2</v>
       </c>
-      <c r="Q4" s="33" t="b">
+      <c r="Q4" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="R4" s="52"/>
+    </row>
+    <row r="5" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J5" s="46"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="L5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="P5" s="46"/>
+    </row>
+    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>0.73434953425430305</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="33">
         <v>0.56080330551903601</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="29">
+      <c r="D6" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="41">
         <v>0.77613843827749496</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="33">
         <v>0.82778117483999802</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="33">
         <v>0.96470588235294097</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="42">
         <v>0.96497277676950999</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="41">
         <v>0.77510347640367205</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="47">
         <f t="shared" ref="J6:J7" si="0">ABS((I6 - E6)/E6) * 100</f>
         <v>0.13334758630429677</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="33">
         <v>0.8309279685548</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="48">
         <f t="shared" ref="L6:L7" si="1">ABS((K6 - F6)/F6) * 100</f>
         <v>0.38014801622061778</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="33">
         <v>0.96450980392156804</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="49">
         <f t="shared" ref="N6:N7" si="2">ABS((M6 - G6)/G6) * 100</f>
         <v>2.0325203252071582E-2</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="42">
         <v>0.96065655404887695</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="50">
         <f t="shared" ref="P6:P7" si="3">ABS((O6 - H6)/H6) * 100</f>
         <v>0.44728958417694215</v>
       </c>
-      <c r="Q6" s="31" t="b">
+      <c r="Q6" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="32" t="b">
+      <c r="R6" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="S6" s="62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
         <v>0.80257188549826697</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="32">
         <v>0.61775548645103096</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="29">
+      <c r="C7" s="56"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="34">
         <v>0.80797894110205704</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="32">
         <v>0.80924247665167703</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="32">
         <v>0.97109243697478898</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="35">
         <v>0.95426573426573402</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="34">
         <v>0.806535435228243</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="36">
         <f t="shared" si="0"/>
         <v>0.1786563733759122</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="32">
         <v>0.81042133775709901</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="37">
         <f t="shared" si="1"/>
         <v>0.14567464504577635</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="32">
         <v>0.97254717964758597</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="38">
         <f t="shared" si="2"/>
         <v>0.14980475775600763</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="35">
         <v>0.95502858967288695</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="39">
         <f t="shared" si="3"/>
         <v>7.9941611624555847E-2</v>
       </c>
-      <c r="Q7" s="33" t="b">
+      <c r="Q7" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="48"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="63"/>
+    </row>
+    <row r="8" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="56"/>
+      <c r="D10" s="54"/>
+      <c r="Q10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="R6:R7"/>
+  <mergeCells count="12">
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1643,12 +1794,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
     </row>
@@ -1656,12 +1807,12 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1776,12 +1927,12 @@
       <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
@@ -1790,12 +1941,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1931,56 +2082,56 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
     </row>

--- a/Phase_2/results.xlsx
+++ b/Phase_2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shour\OneDrive\Desktop\GxE_Analysis\Phase_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C72FE-8A8F-4642-9283-D712CD3B0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826105B-31D8-40CE-82B4-A4817D91453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="With_TL_AST" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>Model Name</t>
   </si>
@@ -92,13 +92,7 @@
     <t>Race 4</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Random Forest</t>
-  </si>
-  <si>
-    <t>Race</t>
   </si>
   <si>
     <t>LogisticRegression</t>
@@ -113,19 +107,7 @@
     <t>Resampling</t>
   </si>
   <si>
-    <t>Tune_final</t>
-  </si>
-  <si>
-    <t>With CV</t>
-  </si>
-  <si>
-    <t>Base Model Params</t>
-  </si>
-  <si>
     <t>RandomForest</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
   </si>
   <si>
     <t>Base Model Val Accuracy</t>
@@ -166,14 +148,27 @@
   <si>
     <t>LogisticRegression performs better without resampling.</t>
   </si>
+  <si>
+    <t>Race (val)</t>
+  </si>
+  <si>
+    <t>Race (train)</t>
+  </si>
+  <si>
+    <t>With Transfer Learning</t>
+  </si>
+  <si>
+    <t>Without Transfer Learning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -240,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -523,29 +518,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,9 +822,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -661,12 +891,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,14 +929,321 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,377 +1526,624 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="29" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="1" width="11.109375" style="127" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="102" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="127" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="126" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="127" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="127" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="100" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="123" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" style="137" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" style="126" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" style="126" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5546875" style="126" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.88671875" style="126" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:30" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="90"/>
+    </row>
+    <row r="2" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="155" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="155" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="156"/>
+      <c r="AB2" s="156"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="90"/>
+    </row>
+    <row r="3" spans="1:30" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="106"/>
+    </row>
+    <row r="4" spans="1:30" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="109">
+        <v>0.80825958702064804</v>
+      </c>
+      <c r="C4" s="110">
+        <v>0.80793184733480605</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="109">
+        <v>0.81115107913669005</v>
+      </c>
+      <c r="G4" s="113">
+        <v>0.74202127659574402</v>
+      </c>
+      <c r="H4" s="113">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="I4" s="114">
+        <v>0.76576576576576505</v>
+      </c>
+      <c r="J4" s="109">
+        <v>0.80453341183397098</v>
+      </c>
+      <c r="K4" s="115">
+        <f>((J4 - F4)/F4) * 100</f>
+        <v>-0.81583658986957941</v>
+      </c>
+      <c r="L4" s="113">
+        <v>0.79350766456266897</v>
+      </c>
+      <c r="M4" s="116">
+        <f>((L4 - G4)/G4) * 100</f>
+        <v>6.9386673389117552</v>
+      </c>
+      <c r="N4" s="113">
+        <v>0.79393939393939394</v>
+      </c>
+      <c r="O4" s="117">
+        <f>((N4 - H4)/H4) * 100</f>
+        <v>-1.2416851441241716</v>
+      </c>
+      <c r="P4" s="110">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="Q4" s="118">
+        <f>((P4 - I4)/I4) * 100</f>
+        <v>9.525616698292211</v>
+      </c>
+      <c r="R4" s="154">
+        <v>0.81115107913669005</v>
+      </c>
+      <c r="S4" s="120">
+        <v>0.72872340425531901</v>
+      </c>
+      <c r="T4" s="120">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="U4" s="121">
+        <v>0.77477477477477397</v>
+      </c>
+      <c r="V4" s="119">
+        <v>0.80453341183397098</v>
+      </c>
+      <c r="W4" s="90">
+        <f>ABS((V4 - R4)/R4) * 100</f>
+        <v>0.81583658986957941</v>
+      </c>
+      <c r="X4" s="120">
+        <v>0.79170423805229895</v>
+      </c>
+      <c r="Y4" s="91">
+        <f>ABS((X4 - S4)/S4) * 100</f>
+        <v>8.6426253677607523</v>
+      </c>
+      <c r="Z4" s="120">
+        <v>0.79393939393939394</v>
+      </c>
+      <c r="AA4" s="103">
+        <f>ABS((Z4 - T4)/T4) * 100</f>
+        <v>1.2416851441241716</v>
+      </c>
+      <c r="AB4" s="121">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="AC4" s="101">
+        <f>ABS((AB4 - U4)/U4) * 100</f>
+        <v>8.2520630157539401</v>
+      </c>
+      <c r="AD4" s="90"/>
+    </row>
+    <row r="5" spans="1:30" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="100">
+        <v>0.72468043264503401</v>
+      </c>
+      <c r="C5" s="123">
+        <v>0.44959432048681502</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="100">
+        <v>0.51978417266187005</v>
+      </c>
+      <c r="G5" s="126">
+        <v>0.61702127659574402</v>
+      </c>
+      <c r="H5" s="126">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="I5" s="127">
+        <v>0.72972972972972905</v>
+      </c>
+      <c r="J5" s="100">
+        <v>0.44660269911849598</v>
+      </c>
+      <c r="K5" s="91">
+        <f t="shared" ref="K5:K8" si="0">((J5 - F5)/F5) * 100</f>
+        <v>-14.079203906614538</v>
+      </c>
+      <c r="L5" s="126">
+        <v>0.60755930840369898</v>
+      </c>
+      <c r="M5" s="91">
+        <f t="shared" ref="M5:M8" si="1">((L5 - G5)/G5) * 100</f>
+        <v>-1.5334913966417829</v>
+      </c>
+      <c r="N5" s="126">
+        <v>0.77514792899408202</v>
+      </c>
+      <c r="O5" s="91">
+        <f t="shared" ref="O5:O8" si="2">((N5 - H5)/H5) * 100</f>
+        <v>-3.5791600519556543</v>
+      </c>
+      <c r="P5" s="126">
+        <v>0.79831932773109204</v>
+      </c>
+      <c r="Q5" s="101">
+        <f t="shared" ref="Q5:Q8" si="3">((P5 - I5)/I5) * 100</f>
+        <v>9.3993152816682706</v>
+      </c>
+      <c r="R5" s="128">
+        <v>0.81115107913669005</v>
+      </c>
+      <c r="S5" s="129">
+        <v>0.72872340425531901</v>
+      </c>
+      <c r="T5" s="129">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="U5" s="130">
+        <v>0.77477477477477397</v>
+      </c>
+      <c r="V5" s="131">
+        <v>0.80453341183397098</v>
+      </c>
+      <c r="W5" s="90">
+        <f t="shared" ref="W5:W9" si="4">ABS((V5 - R5)/R5) * 100</f>
+        <v>0.81583658986957941</v>
+      </c>
+      <c r="X5" s="129">
+        <v>0.79170423805229895</v>
+      </c>
+      <c r="Y5" s="91">
+        <f t="shared" ref="Y5:Y9" si="5">ABS((X5 - S5)/S5) * 100</f>
+        <v>8.6426253677607523</v>
+      </c>
+      <c r="Z5" s="129">
+        <v>0.79393939393939394</v>
+      </c>
+      <c r="AA5" s="103">
+        <f t="shared" ref="AA5:AA9" si="6">ABS((Z5 - T5)/T5) * 100</f>
+        <v>1.2416851441241716</v>
+      </c>
+      <c r="AB5" s="130">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="AC5" s="118">
+        <f>ABS((AB5 - U5)/U5) * 100</f>
+        <v>8.2520630157539401</v>
+      </c>
+      <c r="AD5" s="132"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="154"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="101"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="126">
+        <v>0.80793217246652804</v>
+      </c>
+      <c r="C7" s="126">
+        <v>0.80801381454792098</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="F7" s="126">
+        <v>0.939651303820497</v>
+      </c>
+      <c r="G7" s="126">
+        <v>0.83500468794586402</v>
+      </c>
+      <c r="H7" s="126">
+        <v>0.81212121212121202</v>
+      </c>
+      <c r="I7" s="127">
+        <v>0.85662337662337595</v>
+      </c>
+      <c r="J7" s="100">
+        <v>0.94002055030287801</v>
+      </c>
+      <c r="K7" s="91">
+        <f t="shared" si="0"/>
+        <v>3.929611770661167E-2</v>
+      </c>
+      <c r="L7" s="126">
+        <v>0.83634022974496403</v>
+      </c>
+      <c r="M7" s="91">
+        <f t="shared" si="1"/>
+        <v>0.1599442276648142</v>
+      </c>
+      <c r="N7" s="126">
+        <v>0.81515151515151496</v>
+      </c>
+      <c r="O7" s="91">
+        <f t="shared" si="2"/>
+        <v>0.37313432835819771</v>
+      </c>
+      <c r="P7" s="126">
+        <v>0.859320948110185</v>
+      </c>
+      <c r="Q7" s="101">
+        <f t="shared" si="3"/>
+        <v>0.31490752650742387</v>
+      </c>
+      <c r="W7" s="90" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" s="103" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+    </row>
+    <row r="8" spans="1:30" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="138" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>0.80793184733480605</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.80793217246652804</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0.80453434982240302</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0.79351840528311102</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.79393939393939394</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0.83870129870129795</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.80453347047979296</v>
-      </c>
-      <c r="J3" s="22">
-        <f>ABS((I3 - E3)/E3) * 100</f>
-        <v>1.0929833017754046E-4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0.79350833358725104</v>
-      </c>
-      <c r="L3" s="18">
-        <f>ABS((K3 - F3)/F3) * 100</f>
-        <v>1.2692454003493164E-3</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0.79393939393939394</v>
-      </c>
-      <c r="N3" s="19">
-        <f>ABS((M3 - G3)/G3) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="24">
-        <v>0.83870916079436197</v>
-      </c>
-      <c r="P3" s="21">
-        <f>ABS((O3 - H3)/H3) * 100</f>
-        <v>9.3741276855064792E-4</v>
-      </c>
-      <c r="Q3" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>0.44911257606490801</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.44817444219066899</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="23">
-        <v>0.44660325780959398</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.60755941270110603</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.77522281639928603</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0.79835680751173699</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.44660273402647399</v>
-      </c>
-      <c r="J4" s="22">
-        <f>ABS((I4 - E4)/E4) * 100</f>
-        <v>1.1728152690975407E-4</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.60755931492555704</v>
-      </c>
-      <c r="L4" s="18">
-        <f>ABS((K4 - F4)/F4) * 100</f>
-        <v>1.6093166684045577E-5</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.77515250544662295</v>
-      </c>
-      <c r="N4" s="19">
-        <f>ABS((M4 - G4)/G4) * 100</f>
-        <v>9.0697733833033974E-3</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0.798321678321678</v>
-      </c>
-      <c r="P4" s="21">
-        <f>ABS((O4 - H4)/H4) * 100</f>
-        <v>4.4001866995384432E-3</v>
-      </c>
-      <c r="Q4" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="52"/>
-    </row>
-    <row r="5" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>0.80801381454792098</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.80793217246652804</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.939651303820497</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.83500468794586402</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.81212121212121202</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.85662337662337595</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.94002055030287801</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" ref="J6:J7" si="0">ABS((I6 - E6)/E6) * 100</f>
-        <v>3.929611770661167E-2</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.83634022974496403</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" ref="L6:L7" si="1">ABS((K6 - F6)/F6) * 100</f>
-        <v>0.1599442276648142</v>
-      </c>
-      <c r="M6" s="13">
-        <v>0.81515151515151496</v>
-      </c>
-      <c r="N6" s="19">
-        <f t="shared" ref="N6:N7" si="2">ABS((M6 - G6)/G6) * 100</f>
-        <v>0.37313432835819771</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0.859320948110185</v>
-      </c>
-      <c r="P6" s="21">
-        <f t="shared" ref="P6:P7" si="3">ABS((O6 - H6)/H6) * 100</f>
-        <v>0.31490752650742387</v>
-      </c>
-      <c r="Q6" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="B8" s="139">
+        <v>0.81663286004056701</v>
+      </c>
+      <c r="C8" s="140">
         <v>0.87543103448275805</v>
       </c>
-      <c r="B7" s="13">
-        <v>0.81663286004056701</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="23">
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="139">
         <v>0.98260417814293499</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G8" s="141">
         <v>0.88901844803762298</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H8" s="141">
         <v>0.82245989304812805</v>
       </c>
-      <c r="H7" s="24">
+      <c r="I8" s="142">
         <v>0.87398278560250298</v>
       </c>
-      <c r="I7" s="23">
+      <c r="J8" s="139">
         <v>0.98248694560166605</v>
       </c>
-      <c r="J7" s="22">
+      <c r="K8" s="143">
         <f t="shared" si="0"/>
-        <v>1.1930800201817169E-2</v>
-      </c>
-      <c r="K7" s="13">
+        <v>-1.1930800201817169E-2</v>
+      </c>
+      <c r="L8" s="141">
         <v>0.888821482980513</v>
       </c>
-      <c r="L7" s="18">
+      <c r="M8" s="144">
         <f t="shared" si="1"/>
-        <v>2.2155339694552807E-2</v>
-      </c>
-      <c r="M7" s="13">
+        <v>-2.2155339694552807E-2</v>
+      </c>
+      <c r="N8" s="141">
         <v>0.82839869281045697</v>
       </c>
-      <c r="N7" s="19">
+      <c r="O8" s="145">
         <f t="shared" si="2"/>
         <v>0.72207773443140943</v>
       </c>
-      <c r="O7" s="24">
+      <c r="P8" s="140">
         <v>0.87045270518954698</v>
       </c>
-      <c r="P7" s="21">
+      <c r="Q8" s="146">
         <f t="shared" si="3"/>
-        <v>0.40390731615182102</v>
-      </c>
-      <c r="Q7" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>-0.40390731615182102</v>
+      </c>
+      <c r="R8" s="147"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="90" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" s="103" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="148"/>
+    </row>
+    <row r="9" spans="1:30" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="147"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="90" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9" s="91" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" s="103" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="R3:R4"/>
+  <mergeCells count="10">
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="R1:AC1"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1374,400 +2152,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A96E3-4AA4-4ABF-9CD1-4A8772AE4767}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="1" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="R1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>0.56506098011430395</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.56211048804700703</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>0.56506098011430395</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.56211048804700703</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.57295329472817302</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="5">
         <v>0.50407239819004501</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="5">
         <v>0.52156862745097998</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="16">
         <v>0.53847549909255898</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>0.57294779751067704</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="14">
         <f>ABS((I3 - E3)/E3) * 100</f>
         <v>9.5945298623244517E-4</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="5">
         <v>0.50405862457722606</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="10">
         <f>ABS((K3 - F3)/F3) * 100</f>
         <v>2.7324671750354459E-3</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="5">
         <v>0.520762527233115</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="11">
         <f>ABS((M3 - G3)/G3) * 100</f>
         <v>0.15455304928990232</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="16">
         <v>0.53846242243162401</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="13">
         <f>ABS((O3 - H3)/H3) * 100</f>
         <v>2.4284597826662517E-3</v>
       </c>
-      <c r="Q3" s="25" t="b">
+      <c r="Q3" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+    </row>
+    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>0.53870398845237699</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="23">
         <v>0.53328462840788804</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="34">
+      <c r="C4" s="45"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="25">
         <v>0.53181477524596099</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="23">
         <v>0.54514008993427798</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="23">
         <v>0.57176470588235295</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="26">
         <v>0.57333333333333303</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="25">
         <v>0.53181207485323001</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="27">
         <f>ABS((I4 - E4)/E4) * 100</f>
         <v>5.0776940707073794E-4</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="23">
         <v>0.5451455940187</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="28">
         <f>ABS((K4 - F4)/F4) * 100</f>
         <v>1.0096642172616611E-3</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="23">
         <v>0.572223959962464</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="29">
         <f>ABS((M4 - G4)/G4) * 100</f>
         <v>8.0322215657282217E-2</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="26">
         <v>0.57318085507793204</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="30">
         <f>ABS((O4 - H4)/H4) * 100</f>
         <v>2.6595044546684245E-2</v>
       </c>
-      <c r="Q4" s="40" t="b">
+      <c r="Q4" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="52"/>
-    </row>
-    <row r="5" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="J5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+    </row>
+    <row r="5" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>0.73434953425430305</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="24">
         <v>0.56080330551903601</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="C6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="32">
         <v>0.77613843827749496</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="24">
         <v>0.82778117483999802</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="24">
         <v>0.96470588235294097</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="33">
         <v>0.96497277676950999</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="32">
         <v>0.77510347640367205</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="38">
         <f t="shared" ref="J6:J7" si="0">ABS((I6 - E6)/E6) * 100</f>
         <v>0.13334758630429677</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="24">
         <v>0.8309279685548</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="39">
         <f t="shared" ref="L6:L7" si="1">ABS((K6 - F6)/F6) * 100</f>
         <v>0.38014801622061778</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="24">
         <v>0.96450980392156804</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="40">
         <f t="shared" ref="N6:N7" si="2">ABS((M6 - G6)/G6) * 100</f>
         <v>2.0325203252071582E-2</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="33">
         <v>0.96065655404887695</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="41">
         <f t="shared" ref="P6:P7" si="3">ABS((O6 - H6)/H6) * 100</f>
         <v>0.44728958417694215</v>
       </c>
-      <c r="Q6" s="43" t="b">
+      <c r="Q6" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="R6" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>0.80257188549826697</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="23">
         <v>0.61775548645103096</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="34">
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="25">
         <v>0.80797894110205704</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="23">
         <v>0.80924247665167703</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="23">
         <v>0.97109243697478898</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="26">
         <v>0.95426573426573402</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="25">
         <v>0.806535435228243</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>0.1786563733759122</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="23">
         <v>0.81042133775709901</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="28">
         <f t="shared" si="1"/>
         <v>0.14567464504577635</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="23">
         <v>0.97254717964758597</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="29">
         <f t="shared" si="2"/>
         <v>0.14980475775600763</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="26">
         <v>0.95502858967288695</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="30">
         <f t="shared" si="3"/>
         <v>7.9941611624555847E-2</v>
       </c>
-      <c r="Q7" s="40" t="b">
+      <c r="Q7" s="31" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="52"/>
-      <c r="S7" s="63"/>
-    </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="43"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="43" t="b">
+    </row>
+    <row r="8" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="51" t="b">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
+      <c r="Q10" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="56"/>
-      <c r="D10" s="54"/>
-      <c r="Q10" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="52"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="S6:S7"/>
+  <mergeCells count="9">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1777,127 +2536,207 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DE1B6B-8EC7-4841-A815-4D8ED46C3A73}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="53"/>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="64"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="63">
+        <v>0.81115107913669005</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0.72872340425531901</v>
+      </c>
+      <c r="D3" s="63">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="E3" s="63">
+        <v>0.77477477477477397</v>
+      </c>
+      <c r="F3" s="56">
+        <v>0.80453341183397098</v>
+      </c>
+      <c r="G3" s="14">
+        <f>ABS((F3 - B3)/B3) * 100</f>
+        <v>0.81583658986957941</v>
+      </c>
+      <c r="H3" s="57">
+        <v>0.79170423805229895</v>
+      </c>
+      <c r="I3" s="10">
+        <f>ABS((H3 - C3)/C3) * 100</f>
+        <v>8.6426253677607523</v>
+      </c>
+      <c r="J3" s="57">
+        <v>0.79393939393939394</v>
+      </c>
+      <c r="K3" s="11">
+        <f>ABS((J3 - D3)/D3) * 100</f>
+        <v>1.2416851441241716</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="M3" s="13">
+        <f>ABS((L3 - E3)/E3) * 100</f>
+        <v>8.2520630157539401</v>
+      </c>
+      <c r="N3" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="76" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="62"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71">
+        <v>0.77477477477477397</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="71">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="M4" s="13">
+        <f>ABS((L4 - E4)/E4) * 100</f>
+        <v>8.2520630157539401</v>
+      </c>
+      <c r="N4" s="75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="68" customFormat="1" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.803650264229403</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.78088541029717495</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.81212121212121202</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.83870129870129795</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.80485611510791299</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.75265957446808496</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.74509803921568596</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.73873873873873797</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M10" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F1:M1"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1906,172 +2745,252 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FBF0C5-56C9-4ED6-99B5-2A4E7CAEC132}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="64"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="63">
+        <v>0.55623901581722301</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0.42699724517906301</v>
+      </c>
+      <c r="D3" s="63">
+        <v>0.48076923076923</v>
+      </c>
+      <c r="E3" s="63">
+        <v>0.41237113402061798</v>
+      </c>
+      <c r="F3" s="79">
+        <v>0.57176609568812697</v>
+      </c>
+      <c r="G3" s="14">
+        <f>ABS((F3 - B3)/B3) * 100</f>
+        <v>2.7914402674705707</v>
+      </c>
+      <c r="H3" s="57">
+        <v>0.50315599639314701</v>
+      </c>
+      <c r="I3" s="10">
+        <f>ABS((H3 - C3)/C3) * 100</f>
+        <v>17.835888187556463</v>
+      </c>
+      <c r="J3" s="57">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="K3" s="11">
+        <f>ABS((J3 - D3)/D3) * 100</f>
+        <v>28.000000000000121</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0.53146853146853101</v>
+      </c>
+      <c r="M3" s="13">
+        <f>ABS((L3 - E3)/E3) * 100</f>
+        <v>28.881118881118951</v>
+      </c>
+      <c r="N3" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78"/>
+      <c r="B4" s="69">
+        <v>0.55623901581722301</v>
+      </c>
+      <c r="C4" s="70">
+        <v>0.42699724517906301</v>
+      </c>
+      <c r="D4" s="70">
+        <v>0.48076923076923</v>
+      </c>
+      <c r="E4" s="70">
+        <v>0.41237113402061798</v>
+      </c>
+      <c r="F4" s="80">
+        <v>0.57176609568812697</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G6" si="0">ABS((F4 - B4)/B4) * 100</f>
+        <v>2.7914402674705707</v>
+      </c>
+      <c r="H4" s="70">
+        <v>0.50315599639314701</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I6" si="1">ABS((H4 - C4)/C4) * 100</f>
+        <v>17.835888187556463</v>
+      </c>
+      <c r="J4" s="70">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K6" si="2">ABS((J4 - D4)/D4) * 100</f>
+        <v>28.000000000000121</v>
+      </c>
+      <c r="L4" s="71">
+        <v>0.53146853146853101</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M6" si="3">ABS((L4 - E4)/E4) * 100</f>
+        <v>28.881118881118951</v>
+      </c>
+      <c r="N4" s="75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="66"/>
+      <c r="M5" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9">
-        <v>0.538664323374341</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.39393939393939298</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.63461538461538403</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.49484536082474201</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9">
-        <v>0.49121265377855799</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.443526170798898</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.63461538461538403</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.45360824742268002</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5">
-        <v>0.54745166959578195</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.39393939393939298</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.42307692307692302</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.55670103092783496</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5">
-        <v>0.47891036906854101</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.38842975206611502</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.42307692307692302</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.432989690721649</v>
-      </c>
-      <c r="G7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="b">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="62"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2082,56 +3001,56 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>20</v>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
     </row>
